--- a/data/labeled_claims/cpi_inflation_rate_claims.xlsx
+++ b/data/labeled_claims/cpi_inflation_rate_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="645">
   <si>
     <t>N</t>
   </si>
@@ -1959,6 +1959,9 @@
   </si>
   <si>
     <t>kb_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2358,7 @@
   <dimension ref="A1:L467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2368,6 +2371,9 @@
       <c r="A1" t="s">
         <v>639</v>
       </c>
+      <c r="C1" t="s">
+        <v>644</v>
+      </c>
       <c r="D1" t="s">
         <v>641</v>
       </c>

--- a/data/labeled_claims/cpi_inflation_rate_claims.xlsx
+++ b/data/labeled_claims/cpi_inflation_rate_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="646">
   <si>
     <t>N</t>
   </si>
@@ -1962,6 +1962,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -2357,13 +2360,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="C706" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2383,6 +2387,9 @@
       <c r="G1" t="s">
         <v>643</v>
       </c>
+      <c r="I1" t="s">
+        <v>645</v>
+      </c>
       <c r="J1" t="s">
         <v>642</v>
       </c>
